--- a/media/reports_partner_sgsplus_urik.xlsx
+++ b/media/reports_partner_sgsplus_urik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D4E0E3-E8CC-BB48-8797-F8A9A3A9DC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C18578F-D1EF-754F-A4D2-35C278CB52A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>№ объекта</t>
-  </si>
-  <si>
-    <t>Итого:</t>
   </si>
   <si>
     <t>Директор</t>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">  "Согласовано"</t>
-  </si>
-  <si>
-    <t>АКТ сверки по юридическим лицам за май 2024 г.</t>
   </si>
   <si>
     <t>№ GSM</t>
@@ -180,7 +174,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,14 +193,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -283,21 +271,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -305,21 +278,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,37 +297,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -435,27 +367,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -504,9 +436,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,30 +451,6 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,18 +469,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -591,14 +484,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -938,7 +855,7 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="7"/>
@@ -949,7 +866,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="7"/>
       <c r="L1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
@@ -962,7 +879,7 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="1"/>
@@ -972,10 +889,10 @@
       <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="9" t="s">
-        <v>4</v>
+      <c r="L2" s="74" t="s">
+        <v>3</v>
       </c>
+      <c r="M2" s="74"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -986,7 +903,7 @@
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="7"/>
@@ -997,7 +914,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="5"/>
       <c r="L3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -1031,7 +948,7 @@
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
@@ -1043,7 +960,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1072,19 +989,17 @@
     <row r="7" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -1110,60 +1025,60 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="194" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="28" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="30" t="s">
+      <c r="O10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="30" t="s">
+      <c r="P10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="R10" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="P10" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
@@ -1601,13 +1516,13 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="37"/>
-      <c r="M32" s="48"/>
+      <c r="M32" s="37"/>
       <c r="N32" s="37"/>
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="50"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="49"/>
     </row>
     <row r="33" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="44"/>
@@ -1627,7 +1542,7 @@
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
-      <c r="R33" s="49"/>
+      <c r="R33" s="48"/>
     </row>
     <row r="34" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="44"/>
@@ -1647,7 +1562,7 @@
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
-      <c r="R34" s="49"/>
+      <c r="R34" s="48"/>
     </row>
     <row r="35" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="44"/>
@@ -1656,18 +1571,18 @@
       <c r="D35" s="44"/>
       <c r="E35" s="45"/>
       <c r="F35" s="46"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="52"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
       <c r="Q35" s="37"/>
-      <c r="R35" s="49"/>
+      <c r="R35" s="48"/>
     </row>
     <row r="36" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="37"/>
@@ -1676,7 +1591,7 @@
       <c r="D36" s="32"/>
       <c r="E36" s="45"/>
       <c r="F36" s="46"/>
-      <c r="G36" s="51"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36"/>
@@ -1687,7 +1602,7 @@
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
-      <c r="R36" s="49"/>
+      <c r="R36" s="48"/>
     </row>
     <row r="37" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="37"/>
@@ -1696,7 +1611,7 @@
       <c r="D37" s="44"/>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
-      <c r="G37" s="51"/>
+      <c r="G37" s="50"/>
       <c r="H37" s="36"/>
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
@@ -1707,7 +1622,7 @@
       <c r="O37" s="37"/>
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
-      <c r="R37" s="49"/>
+      <c r="R37" s="48"/>
     </row>
     <row r="38" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="37"/>
@@ -1716,7 +1631,7 @@
       <c r="D38" s="44"/>
       <c r="E38" s="45"/>
       <c r="F38" s="46"/>
-      <c r="G38" s="51"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="36"/>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
@@ -1727,7 +1642,7 @@
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
-      <c r="R38" s="49"/>
+      <c r="R38" s="48"/>
     </row>
     <row r="39" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="37"/>
@@ -1736,7 +1651,7 @@
       <c r="D39" s="44"/>
       <c r="E39" s="45"/>
       <c r="F39" s="46"/>
-      <c r="G39" s="51"/>
+      <c r="G39" s="50"/>
       <c r="H39" s="36"/>
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
@@ -1747,7 +1662,7 @@
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="49"/>
+      <c r="R39" s="48"/>
     </row>
     <row r="40" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="44"/>
@@ -1756,7 +1671,7 @@
       <c r="D40" s="44"/>
       <c r="E40" s="45"/>
       <c r="F40" s="46"/>
-      <c r="G40" s="51"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="36"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
@@ -1767,7 +1682,7 @@
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
-      <c r="R40" s="49"/>
+      <c r="R40" s="48"/>
     </row>
     <row r="41" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="44"/>
@@ -1776,7 +1691,7 @@
       <c r="D41" s="44"/>
       <c r="E41" s="45"/>
       <c r="F41" s="46"/>
-      <c r="G41" s="51"/>
+      <c r="G41" s="50"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -1787,7 +1702,7 @@
       <c r="O41" s="37"/>
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
-      <c r="R41" s="49"/>
+      <c r="R41" s="48"/>
     </row>
     <row r="42" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="44"/>
@@ -1796,7 +1711,7 @@
       <c r="D42" s="44"/>
       <c r="E42" s="45"/>
       <c r="F42" s="46"/>
-      <c r="G42" s="51"/>
+      <c r="G42" s="50"/>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
@@ -1807,7 +1722,7 @@
       <c r="O42" s="37"/>
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
-      <c r="R42" s="49"/>
+      <c r="R42" s="48"/>
     </row>
     <row r="43" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="44"/>
@@ -1816,18 +1731,18 @@
       <c r="D43" s="44"/>
       <c r="E43" s="45"/>
       <c r="F43" s="46"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="49"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="48"/>
     </row>
     <row r="44" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="44"/>
@@ -1837,112 +1752,86 @@
       <c r="E44" s="45"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="49"/>
-    </row>
-    <row r="45" spans="1:18" s="40" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="60">
-        <f t="shared" ref="J45:O45" si="0">ROUND(SUM(J11:J44),0)</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M45" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="60">
-        <f>SUM(P11:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="60">
-        <f>ROUND(SUM(Q11:Q44),0)</f>
-        <v>0</v>
-      </c>
-      <c r="R45" s="61"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="48"/>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+      <c r="P45" s="38"/>
+      <c r="Q45" s="38"/>
+      <c r="R45" s="72"/>
     </row>
     <row r="46" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="63"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="18"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
       <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="63"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="18"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="63"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="18"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -1955,12 +1844,12 @@
       <c r="Q48" s="17"/>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:19" s="19" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
       <c r="H49" s="18"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -1976,10 +1865,10 @@
     <row r="50" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
       <c r="H50" s="18"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -1992,13 +1881,13 @@
       <c r="Q50" s="17"/>
       <c r="R50" s="12"/>
     </row>
-    <row r="51" spans="1:19" s="19" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
       <c r="H51" s="18"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -2012,59 +1901,59 @@
       <c r="R51" s="12"/>
     </row>
     <row r="52" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="62"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="73"/>
-      <c r="H52" s="73"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="14"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="63"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
     </row>
     <row r="53" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="73"/>
-      <c r="O53" s="78"/>
-      <c r="P53" s="78"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="62"/>
+      <c r="R53" s="53"/>
     </row>
     <row r="54" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="72"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="18"/>
-      <c r="E54" s="72"/>
+      <c r="E54" s="59"/>
       <c r="F54" s="14"/>
-      <c r="G54" s="63"/>
+      <c r="G54" s="54"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
-      <c r="L54" s="78"/>
-      <c r="N54" s="73"/>
-      <c r="O54" s="73"/>
-      <c r="P54" s="73"/>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="62"/>
+      <c r="L54" s="64"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="53"/>
     </row>
     <row r="55" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12"/>
@@ -2073,7 +1962,7 @@
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="14"/>
-      <c r="G55" s="63"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="18"/>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -2093,7 +1982,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="63"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="18"/>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
@@ -2113,7 +2002,7 @@
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="63"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="18"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -2133,7 +2022,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="14"/>
-      <c r="G58" s="63"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="18"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -2153,7 +2042,7 @@
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="63"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="18"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -2173,7 +2062,7 @@
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="63"/>
+      <c r="G60" s="54"/>
       <c r="H60" s="18"/>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
@@ -2193,7 +2082,7 @@
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="63"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="18"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -2213,7 +2102,7 @@
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="63"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="18"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -2233,7 +2122,7 @@
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="63"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="18"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -2253,7 +2142,7 @@
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="63"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="18"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -2273,7 +2162,7 @@
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="14"/>
-      <c r="G65" s="63"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="18"/>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -2293,7 +2182,7 @@
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="63"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="18"/>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -2313,7 +2202,7 @@
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="63"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="18"/>
       <c r="I67" s="14"/>
       <c r="J67" s="14"/>
@@ -2333,7 +2222,7 @@
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="63"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="18"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -2353,7 +2242,7 @@
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="14"/>
-      <c r="G69" s="63"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="18"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -2373,7 +2262,7 @@
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="14"/>
-      <c r="G70" s="63"/>
+      <c r="G70" s="54"/>
       <c r="H70" s="18"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
@@ -2393,7 +2282,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="63"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="18"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -2413,7 +2302,7 @@
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="63"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="18"/>
       <c r="I72" s="14"/>
       <c r="J72" s="14"/>
@@ -2433,7 +2322,7 @@
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="63"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="18"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2453,7 +2342,7 @@
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="14"/>
-      <c r="G74" s="63"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="18"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -2473,7 +2362,7 @@
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="14"/>
-      <c r="G75" s="63"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="18"/>
       <c r="I75" s="14"/>
       <c r="J75" s="14"/>
@@ -2493,7 +2382,7 @@
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="63"/>
+      <c r="G76" s="54"/>
       <c r="H76" s="18"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -2513,7 +2402,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="63"/>
+      <c r="G77" s="54"/>
       <c r="H77" s="18"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -2533,7 +2422,7 @@
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="14"/>
-      <c r="G78" s="63"/>
+      <c r="G78" s="54"/>
       <c r="H78" s="18"/>
       <c r="I78" s="14"/>
       <c r="J78" s="14"/>
@@ -2553,7 +2442,7 @@
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="14"/>
-      <c r="G79" s="63"/>
+      <c r="G79" s="54"/>
       <c r="H79" s="18"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
@@ -2573,7 +2462,7 @@
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="14"/>
-      <c r="G80" s="63"/>
+      <c r="G80" s="54"/>
       <c r="H80" s="18"/>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
@@ -2593,7 +2482,7 @@
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="63"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="18"/>
       <c r="I81" s="14"/>
       <c r="J81" s="14"/>
@@ -2613,7 +2502,7 @@
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="63"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="18"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -2633,7 +2522,7 @@
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="14"/>
-      <c r="G83" s="63"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="18"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -2653,7 +2542,7 @@
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="14"/>
-      <c r="G84" s="63"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="18"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -2673,7 +2562,7 @@
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="14"/>
-      <c r="G85" s="63"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="18"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -2693,7 +2582,7 @@
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="63"/>
+      <c r="G86" s="54"/>
       <c r="H86" s="18"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -2713,7 +2602,7 @@
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="14"/>
-      <c r="G87" s="63"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="18"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -2733,7 +2622,7 @@
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="14"/>
-      <c r="G88" s="63"/>
+      <c r="G88" s="54"/>
       <c r="H88" s="18"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -2753,7 +2642,7 @@
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="14"/>
-      <c r="G89" s="63"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="18"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -2773,7 +2662,7 @@
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="14"/>
-      <c r="G90" s="63"/>
+      <c r="G90" s="54"/>
       <c r="H90" s="18"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
@@ -2793,7 +2682,7 @@
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="14"/>
-      <c r="G91" s="63"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="18"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -2813,7 +2702,7 @@
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="14"/>
-      <c r="G92" s="63"/>
+      <c r="G92" s="54"/>
       <c r="H92" s="18"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -2833,7 +2722,7 @@
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="14"/>
-      <c r="G93" s="63"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="18"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -2853,7 +2742,7 @@
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="14"/>
-      <c r="G94" s="63"/>
+      <c r="G94" s="54"/>
       <c r="H94" s="18"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
@@ -2873,7 +2762,7 @@
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="14"/>
-      <c r="G95" s="63"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="18"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
@@ -2893,7 +2782,7 @@
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="14"/>
-      <c r="G96" s="63"/>
+      <c r="G96" s="54"/>
       <c r="H96" s="18"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
@@ -2913,7 +2802,7 @@
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="14"/>
-      <c r="G97" s="63"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="18"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -2933,7 +2822,7 @@
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="14"/>
-      <c r="G98" s="63"/>
+      <c r="G98" s="54"/>
       <c r="H98" s="18"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -2953,7 +2842,7 @@
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="14"/>
-      <c r="G99" s="63"/>
+      <c r="G99" s="54"/>
       <c r="H99" s="18"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
@@ -2973,7 +2862,7 @@
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="14"/>
-      <c r="G100" s="63"/>
+      <c r="G100" s="54"/>
       <c r="H100" s="18"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -2993,7 +2882,7 @@
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="14"/>
-      <c r="G101" s="63"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="18"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -3013,7 +2902,7 @@
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="14"/>
-      <c r="G102" s="63"/>
+      <c r="G102" s="54"/>
       <c r="H102" s="18"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -3033,7 +2922,7 @@
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="14"/>
-      <c r="G103" s="63"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="18"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -3053,7 +2942,7 @@
       <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="14"/>
-      <c r="G104" s="63"/>
+      <c r="G104" s="54"/>
       <c r="H104" s="18"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
@@ -3073,7 +2962,7 @@
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="14"/>
-      <c r="G105" s="63"/>
+      <c r="G105" s="54"/>
       <c r="H105" s="18"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -3093,7 +2982,7 @@
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="14"/>
-      <c r="G106" s="63"/>
+      <c r="G106" s="54"/>
       <c r="H106" s="18"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -3113,7 +3002,7 @@
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="14"/>
-      <c r="G107" s="63"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="18"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3133,7 +3022,7 @@
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="14"/>
-      <c r="G108" s="63"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="18"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3153,7 +3042,7 @@
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="14"/>
-      <c r="G109" s="63"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="18"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -3173,7 +3062,7 @@
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="14"/>
-      <c r="G110" s="63"/>
+      <c r="G110" s="54"/>
       <c r="H110" s="18"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -3193,7 +3082,7 @@
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="14"/>
-      <c r="G111" s="63"/>
+      <c r="G111" s="54"/>
       <c r="H111" s="18"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -3213,7 +3102,7 @@
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="14"/>
-      <c r="G112" s="63"/>
+      <c r="G112" s="54"/>
       <c r="H112" s="18"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
@@ -3233,7 +3122,7 @@
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="14"/>
-      <c r="G113" s="63"/>
+      <c r="G113" s="54"/>
       <c r="H113" s="18"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
@@ -3253,7 +3142,7 @@
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
       <c r="F114" s="14"/>
-      <c r="G114" s="63"/>
+      <c r="G114" s="54"/>
       <c r="H114" s="18"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -3273,7 +3162,7 @@
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="14"/>
-      <c r="G115" s="63"/>
+      <c r="G115" s="54"/>
       <c r="H115" s="18"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -3293,7 +3182,7 @@
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="14"/>
-      <c r="G116" s="63"/>
+      <c r="G116" s="54"/>
       <c r="H116" s="18"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
@@ -3313,7 +3202,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="14"/>
-      <c r="G117" s="63"/>
+      <c r="G117" s="54"/>
       <c r="H117" s="18"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -3333,7 +3222,7 @@
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
       <c r="F118" s="14"/>
-      <c r="G118" s="63"/>
+      <c r="G118" s="54"/>
       <c r="H118" s="18"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
@@ -3353,7 +3242,7 @@
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="14"/>
-      <c r="G119" s="63"/>
+      <c r="G119" s="54"/>
       <c r="H119" s="18"/>
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
@@ -3373,7 +3262,7 @@
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="63"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="18"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -3393,7 +3282,7 @@
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="14"/>
-      <c r="G121" s="63"/>
+      <c r="G121" s="54"/>
       <c r="H121" s="18"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -3427,8 +3316,9 @@
       <c r="R122" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C7:M7"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>

--- a/media/reports_partner_sgsplus_urik.xlsx
+++ b/media/reports_partner_sgsplus_urik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C18578F-D1EF-754F-A4D2-35C278CB52A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3BA2C6-681E-234A-A056-83399996F2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="2760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="май об." sheetId="401" r:id="rId1"/>
@@ -121,7 +121,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="#,##0\ _₽"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -172,6 +172,12 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -510,6 +516,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -889,10 +901,10 @@
       <c r="I2" s="6"/>
       <c r="J2" s="2"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="74" t="s">
+      <c r="L2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="74"/>
+      <c r="M2" s="76"/>
       <c r="N2" s="9"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -989,17 +1001,17 @@
     <row r="7" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -1025,7 +1037,7 @@
       <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" s="14" customFormat="1" ht="194" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="14" customFormat="1" ht="189" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
@@ -1847,6 +1859,8 @@
     <row r="49" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="57"/>
       <c r="F49" s="57"/>
       <c r="G49" s="58"/>
